--- a/Mini-ModBot Hardware Integration - Port_Pin Mapping.xlsx
+++ b/Mini-ModBot Hardware Integration - Port_Pin Mapping.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="94">
   <si>
     <t xml:space="preserve">Mini-ModBot Hardware Integration - Port/Pin Mapping </t>
   </si>
@@ -296,6 +296,15 @@
   </si>
   <si>
     <t>2 GPIOs for RGB LED</t>
+  </si>
+  <si>
+    <t>Power Regulator</t>
+  </si>
+  <si>
+    <t>Reverse voltage protection</t>
+  </si>
+  <si>
+    <t>Check all 3.3V nets</t>
   </si>
 </sst>
 </file>
@@ -507,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -634,13 +643,17 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -974,15 +987,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="74"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="76"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -1488,17 +1501,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="74"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="76"/>
     </row>
     <row r="3" spans="1:18" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -2157,10 +2170,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB47"/>
+  <dimension ref="A1:AB53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2175,17 +2188,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="74"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="76"/>
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -2520,7 +2533,7 @@
       </c>
       <c r="G20" s="61"/>
       <c r="H20" s="62"/>
-      <c r="I20" s="75" t="s">
+      <c r="I20" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P20" s="20"/>
@@ -2528,52 +2541,55 @@
       <c r="R20" s="20"/>
     </row>
     <row r="21" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="63"/>
       <c r="P21" s="20"/>
       <c r="Q21" s="20"/>
       <c r="R21" s="20"/>
     </row>
     <row r="22" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A22" s="11"/>
-      <c r="B22" s="13" t="s">
+      <c r="A22" s="62"/>
+      <c r="B22" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="12"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="63"/>
       <c r="P22" s="20"/>
       <c r="Q22" s="20"/>
       <c r="R22" s="20"/>
     </row>
     <row r="23" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A23" s="11"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="15" t="s">
+      <c r="A23" s="62"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="12"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="63"/>
       <c r="P23" s="20"/>
       <c r="Q23" s="20"/>
       <c r="R23" s="20"/>
@@ -2937,81 +2953,81 @@
       <c r="AA35" s="54"/>
       <c r="AB35" s="54"/>
     </row>
-    <row r="36" spans="1:28" ht="12.75">
-      <c r="A36" s="7" t="s">
+    <row r="36" spans="1:28" s="61" customFormat="1" ht="12.75">
+      <c r="A36" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="12"/>
-      <c r="R36" s="20"/>
-    </row>
-    <row r="37" spans="1:28" ht="12.75">
-      <c r="A37" s="7"/>
-      <c r="B37" s="8" t="s">
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="78"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="63"/>
+      <c r="R36" s="73"/>
+    </row>
+    <row r="37" spans="1:28" s="61" customFormat="1" ht="12.75">
+      <c r="A37" s="58"/>
+      <c r="B37" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="29" t="s">
+      <c r="D37" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="F37" s="22" t="s">
+      <c r="F37" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="H37" s="11"/>
-      <c r="I37" s="22" t="s">
+      <c r="H37" s="62"/>
+      <c r="I37" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="R37" s="20"/>
-    </row>
-    <row r="38" spans="1:28" ht="12.75">
-      <c r="A38" s="8" t="s">
+      <c r="R37" s="73"/>
+    </row>
+    <row r="38" spans="1:28" s="61" customFormat="1" ht="12.75">
+      <c r="A38" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="12"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="20"/>
-      <c r="R38" s="20"/>
-    </row>
-    <row r="39" spans="1:28" ht="12.75">
-      <c r="A39" s="11"/>
-      <c r="B39" s="13" t="s">
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="63"/>
+      <c r="P38" s="73"/>
+      <c r="Q38" s="73"/>
+      <c r="R38" s="73"/>
+    </row>
+    <row r="39" spans="1:28" s="61" customFormat="1" ht="12.75">
+      <c r="A39" s="62"/>
+      <c r="B39" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39" s="72">
         <v>8</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="F39" s="33"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="22" t="s">
+      <c r="F39" s="78"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="20"/>
+      <c r="P39" s="73"/>
+      <c r="Q39" s="73"/>
+      <c r="R39" s="73"/>
     </row>
     <row r="40" spans="1:28" ht="12.75">
       <c r="A40" s="25"/>
@@ -3040,28 +3056,28 @@
       <c r="A42" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="L42" s="76"/>
-      <c r="M42" s="76"/>
-      <c r="N42" s="76"/>
-      <c r="O42" s="76"/>
-      <c r="P42" s="76"/>
-      <c r="Q42" s="76"/>
-      <c r="R42" s="76"/>
-    </row>
-    <row r="43" spans="1:28" ht="12.75">
-      <c r="A43" t="s">
+      <c r="L42" s="73"/>
+      <c r="M42" s="73"/>
+      <c r="N42" s="73"/>
+      <c r="O42" s="73"/>
+      <c r="P42" s="73"/>
+      <c r="Q42" s="73"/>
+      <c r="R42" s="73"/>
+    </row>
+    <row r="43" spans="1:28" s="61" customFormat="1" ht="12.75">
+      <c r="A43" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="20"/>
+      <c r="L43" s="73"/>
+      <c r="M43" s="73"/>
+      <c r="N43" s="73"/>
+      <c r="O43" s="73"/>
+      <c r="P43" s="73"/>
+      <c r="Q43" s="73"/>
+      <c r="R43" s="73"/>
     </row>
     <row r="44" spans="1:28" ht="12.75">
       <c r="A44" t="s">
@@ -3085,9 +3101,24 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:28" s="57" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A47" s="57" t="s">
+    <row r="47" spans="1:28" s="61" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A47" s="61" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" s="61" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A50" s="61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" s="61" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A51" s="61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A53" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Mini-ModBot Hardware Integration - Port_Pin Mapping.xlsx
+++ b/Mini-ModBot Hardware Integration - Port_Pin Mapping.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="105">
   <si>
     <t xml:space="preserve">Mini-ModBot Hardware Integration - Port/Pin Mapping </t>
   </si>
@@ -305,6 +305,39 @@
   </si>
   <si>
     <t>Check all 3.3V nets</t>
+  </si>
+  <si>
+    <t>Find bulk capacitors</t>
+  </si>
+  <si>
+    <t>Break out edison analog pins</t>
+  </si>
+  <si>
+    <t>Break out edison uart pins</t>
+  </si>
+  <si>
+    <t>Allow connecting edison aref/ioref to onboard psu</t>
+  </si>
+  <si>
+    <t>Break out 5V/3.3V outputs</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>Fuse/circuit breaker</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/c-k-components/1101M2S4AQE2/CKN5050-ND/483720</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/schurter-inc/T9-818C-6/486-3051-ND/4895729</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/sullins-connector-solutions/PPTC051LFBN-RC/S6103-ND/807239</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/sullins-connector-solutions/PPPC031LFBN-RC/S7036-ND/810175</t>
   </si>
 </sst>
 </file>
@@ -645,15 +678,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -987,15 +1020,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="76"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="78"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -1501,17 +1534,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="76"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="3" spans="1:18" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -2170,10 +2203,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB53"/>
+  <dimension ref="A1:AB61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2188,17 +2221,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="76"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -2805,15 +2838,9 @@
     <row r="31" spans="1:28" ht="12.75">
       <c r="A31" s="41"/>
       <c r="B31" s="41"/>
-      <c r="C31" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="49" t="s">
-        <v>74</v>
-      </c>
+      <c r="C31" s="48"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
       <c r="F31" s="49"/>
       <c r="G31" s="40"/>
       <c r="H31" s="41"/>
@@ -2959,9 +2986,9 @@
       </c>
       <c r="B36" s="58"/>
       <c r="C36" s="58"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="78"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
       <c r="G36" s="73"/>
       <c r="H36" s="58"/>
       <c r="I36" s="63"/>
@@ -2978,14 +3005,14 @@
       <c r="D37" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="E37" s="78" t="s">
+      <c r="E37" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="F37" s="78" t="s">
+      <c r="F37" s="75" t="s">
         <v>68</v>
       </c>
       <c r="H37" s="62"/>
-      <c r="I37" s="78" t="s">
+      <c r="I37" s="75" t="s">
         <v>45</v>
       </c>
       <c r="R37" s="73"/>
@@ -2996,7 +3023,7 @@
       </c>
       <c r="B38" s="62"/>
       <c r="C38" s="62"/>
-      <c r="D38" s="77"/>
+      <c r="D38" s="74"/>
       <c r="E38" s="63"/>
       <c r="F38" s="63"/>
       <c r="G38" s="73"/>
@@ -3017,12 +3044,12 @@
       <c r="D39" s="72">
         <v>8</v>
       </c>
-      <c r="E39" s="78" t="s">
+      <c r="E39" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="F39" s="78"/>
+      <c r="F39" s="75"/>
       <c r="H39" s="62"/>
-      <c r="I39" s="78" t="s">
+      <c r="I39" s="75" t="s">
         <v>48</v>
       </c>
       <c r="P39" s="73"/>
@@ -3106,19 +3133,69 @@
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:1" s="61" customFormat="1" ht="15.75" customHeight="1">
+    <row r="50" spans="1:3" s="61" customFormat="1" ht="15.75" customHeight="1">
       <c r="A50" s="61" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:1" s="61" customFormat="1" ht="15.75" customHeight="1">
+    <row r="51" spans="1:3" s="61" customFormat="1" ht="15.75" customHeight="1">
       <c r="A51" s="61" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="15.75" customHeight="1">
+    <row r="53" spans="1:3" ht="15.75" customHeight="1">
       <c r="A53" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A55" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A56" t="s">
+        <v>95</v>
+      </c>
+      <c r="C56" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A57" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A58" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A59" t="s">
+        <v>98</v>
+      </c>
+      <c r="C59" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A60" t="s">
+        <v>99</v>
+      </c>
+      <c r="C60" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A61" t="s">
+        <v>100</v>
+      </c>
+      <c r="C61" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Mini-ModBot Hardware Integration - Port_Pin Mapping.xlsx
+++ b/Mini-ModBot Hardware Integration - Port_Pin Mapping.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="104">
   <si>
     <t xml:space="preserve">Mini-ModBot Hardware Integration - Port/Pin Mapping </t>
   </si>
@@ -329,9 +329,6 @@
   </si>
   <si>
     <t>http://www.digikey.com/product-detail/en/c-k-components/1101M2S4AQE2/CKN5050-ND/483720</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/schurter-inc/T9-818C-6/486-3051-ND/4895729</t>
   </si>
   <si>
     <t>http://www.digikey.com/product-detail/en/sullins-connector-solutions/PPTC051LFBN-RC/S6103-ND/807239</t>
@@ -2205,8 +2202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3148,25 +3145,25 @@
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A55" t="s">
+    <row r="55" spans="1:3" s="61" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A55" s="61" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A56" t="s">
+    <row r="56" spans="1:3" s="61" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A56" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="C56" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A57" t="s">
+      <c r="C56" s="61" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="61" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A57" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="C57" t="s">
-        <v>104</v>
+      <c r="C57" s="61" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1">
@@ -3174,12 +3171,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A59" t="s">
+    <row r="59" spans="1:3" s="61" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A59" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="C59" t="s">
-        <v>103</v>
+      <c r="C59" s="61" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" customHeight="1">
@@ -3190,12 +3187,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A61" t="s">
+    <row r="61" spans="1:3" s="61" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A61" s="61" t="s">
         <v>100</v>
-      </c>
-      <c r="C61" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Mini-ModBot Hardware Integration - Port_Pin Mapping.xlsx
+++ b/Mini-ModBot Hardware Integration - Port_Pin Mapping.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="110">
   <si>
     <t xml:space="preserve">Mini-ModBot Hardware Integration - Port/Pin Mapping </t>
   </si>
@@ -335,6 +335,24 @@
   </si>
   <si>
     <t>http://www.digikey.com/product-detail/en/sullins-connector-solutions/PPPC031LFBN-RC/S7036-ND/810175</t>
+  </si>
+  <si>
+    <t>Removed decoupling cap on IMU - C1</t>
+  </si>
+  <si>
+    <t>Lidar switch for switching between 3.3V/5V</t>
+  </si>
+  <si>
+    <t>PIC inductor on AVDD/Vss</t>
+  </si>
+  <si>
+    <t>Unused IO pull-down?</t>
+  </si>
+  <si>
+    <t>MCLR connection cap?</t>
+  </si>
+  <si>
+    <t>AREF/IOREF on Edison</t>
   </si>
 </sst>
 </file>
@@ -2200,10 +2218,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB61"/>
+  <dimension ref="A1:AB68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3192,6 +3210,36 @@
         <v>100</v>
       </c>
     </row>
+    <row r="63" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A63" s="57" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A64" s="57" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A65" s="57" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A66" s="57" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A67" s="57" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A68" s="57" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
